--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>30.37883030248067</v>
+        <v>21.84125836401556</v>
       </c>
       <c r="R2">
-        <v>273.409472722326</v>
+        <v>196.57132527614</v>
       </c>
       <c r="S2">
-        <v>0.001395502189057957</v>
+        <v>0.001793775015054371</v>
       </c>
       <c r="T2">
-        <v>0.001613432085246262</v>
+        <v>0.002224516834913037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>136.902371662966</v>
+        <v>144.5977818739393</v>
       </c>
       <c r="R3">
-        <v>1232.121344966694</v>
+        <v>1301.380036865454</v>
       </c>
       <c r="S3">
-        <v>0.006288838557661469</v>
+        <v>0.01187550112886754</v>
       </c>
       <c r="T3">
-        <v>0.007270940875208788</v>
+        <v>0.01472718259675051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>16.923679236784</v>
+        <v>10.660292693242</v>
       </c>
       <c r="R4">
-        <v>152.313113131056</v>
+        <v>95.94263423917799</v>
       </c>
       <c r="S4">
-        <v>0.0007774174050380818</v>
+        <v>0.0008755066382900719</v>
       </c>
       <c r="T4">
-        <v>0.0008988235165464419</v>
+        <v>0.001085743328794972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>116.005630056926</v>
+        <v>162.6441262645833</v>
       </c>
       <c r="R5">
-        <v>696.0337803415562</v>
+        <v>975.8647575875</v>
       </c>
       <c r="S5">
-        <v>0.00532891191252576</v>
+        <v>0.01335760811837766</v>
       </c>
       <c r="T5">
-        <v>0.004107404262319891</v>
+        <v>0.01104346007131093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>30.716250507652</v>
+        <v>14.84340418337422</v>
       </c>
       <c r="R6">
-        <v>276.446254568868</v>
+        <v>133.590637650368</v>
       </c>
       <c r="S6">
-        <v>0.001411002148413223</v>
+        <v>0.001219056481029375</v>
       </c>
       <c r="T6">
-        <v>0.001631352610158288</v>
+        <v>0.001511790298114668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>298.431007722111</v>
+        <v>203.14207984719</v>
       </c>
       <c r="R7">
-        <v>2685.879069498999</v>
+        <v>1828.27871862471</v>
       </c>
       <c r="S7">
-        <v>0.01370892560418861</v>
+        <v>0.01668361690809996</v>
       </c>
       <c r="T7">
-        <v>0.01584979271081121</v>
+        <v>0.02068987825554211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
         <v>1344.881034856359</v>
@@ -948,10 +948,10 @@
         <v>12103.92931370723</v>
       </c>
       <c r="S8">
-        <v>0.06177935126130664</v>
+        <v>0.110452152451086</v>
       </c>
       <c r="T8">
-        <v>0.07142718106230903</v>
+        <v>0.1369751894846047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>166.252307897016</v>
+        <v>99.14969153301301</v>
       </c>
       <c r="R9">
-        <v>1496.270771073144</v>
+        <v>892.347223797117</v>
       </c>
       <c r="S9">
-        <v>0.007637076783278199</v>
+        <v>0.008142948380450743</v>
       </c>
       <c r="T9">
-        <v>0.008829727976240829</v>
+        <v>0.01009832649363302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>1139.598751321899</v>
+        <v>1512.727221740625</v>
       </c>
       <c r="R10">
-        <v>6837.592507931396</v>
+        <v>9076.36333044375</v>
       </c>
       <c r="S10">
-        <v>0.05234936751292769</v>
+        <v>0.1242369944866156</v>
       </c>
       <c r="T10">
-        <v>0.04034970342574792</v>
+        <v>0.102713470543052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>301.745705847498</v>
+        <v>138.056148028128</v>
       </c>
       <c r="R11">
-        <v>2715.711352627482</v>
+        <v>1242.505332253152</v>
       </c>
       <c r="S11">
-        <v>0.01386119178573629</v>
+        <v>0.01133825097804367</v>
       </c>
       <c r="T11">
-        <v>0.01602583768210059</v>
+        <v>0.01406092178085268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>343.7597496170166</v>
+        <v>254.5538207176555</v>
       </c>
       <c r="R12">
-        <v>3093.837746553149</v>
+        <v>2290.9843864589</v>
       </c>
       <c r="S12">
-        <v>0.01579117689272549</v>
+        <v>0.02090595129547341</v>
       </c>
       <c r="T12">
-        <v>0.01825722070684946</v>
+        <v>0.02592612797945732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>1549.155268199842</v>
+        <v>1685.247124037143</v>
       </c>
       <c r="R13">
-        <v>13942.39741379858</v>
+        <v>15167.22411633429</v>
       </c>
       <c r="S13">
-        <v>0.0711630285444866</v>
+        <v>0.1384056785972787</v>
       </c>
       <c r="T13">
-        <v>0.08227626902862696</v>
+        <v>0.1716412367790045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>191.5044022139493</v>
+        <v>124.24276064167</v>
       </c>
       <c r="R14">
-        <v>1723.539619925544</v>
+        <v>1118.18484577503</v>
       </c>
       <c r="S14">
-        <v>0.008797073812350805</v>
+        <v>0.01020378753486044</v>
       </c>
       <c r="T14">
-        <v>0.01017087701933871</v>
+        <v>0.0126540379705784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>1312.692620007716</v>
+        <v>1895.572272802083</v>
       </c>
       <c r="R15">
-        <v>7876.155720046295</v>
+        <v>11373.4336368125</v>
       </c>
       <c r="S15">
-        <v>0.06030072279087738</v>
+        <v>0.155679225322669</v>
       </c>
       <c r="T15">
-        <v>0.0464784274684748</v>
+        <v>0.1287084703748834</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>347.5779178641313</v>
+        <v>172.9957672017422</v>
       </c>
       <c r="R16">
-        <v>3128.201260777182</v>
+        <v>1556.96190481568</v>
       </c>
       <c r="S16">
-        <v>0.01596657081322826</v>
+        <v>0.01420776585967713</v>
       </c>
       <c r="T16">
-        <v>0.01846000518194035</v>
+        <v>0.017619497471034</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>123.7046219187495</v>
+        <v>108.20652872442</v>
       </c>
       <c r="R17">
-        <v>742.2277315124969</v>
+        <v>649.2391723465198</v>
       </c>
       <c r="S17">
-        <v>0.005682577932242021</v>
+        <v>0.008886766708067201</v>
       </c>
       <c r="T17">
-        <v>0.004380001997216912</v>
+        <v>0.007347172669976114</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>557.4755827568655</v>
+        <v>716.3700816619619</v>
       </c>
       <c r="R18">
-        <v>3344.853496541193</v>
+        <v>4298.220489971772</v>
       </c>
       <c r="S18">
-        <v>0.02560856979473761</v>
+        <v>0.05883391572963547</v>
       </c>
       <c r="T18">
-        <v>0.01973850392977634</v>
+        <v>0.04864119335146463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>68.914349914572</v>
+        <v>52.81349857673399</v>
       </c>
       <c r="R19">
-        <v>413.486099487432</v>
+        <v>316.8809914604039</v>
       </c>
       <c r="S19">
-        <v>0.00316569549274049</v>
+        <v>0.004337457697063648</v>
       </c>
       <c r="T19">
-        <v>0.002440046180820839</v>
+        <v>0.003586011841642527</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>472.3826580467955</v>
+        <v>805.77574914375</v>
       </c>
       <c r="R20">
-        <v>1889.530632187182</v>
+        <v>3223.102996575</v>
       </c>
       <c r="S20">
-        <v>0.02169968451100929</v>
+        <v>0.06617660862123705</v>
       </c>
       <c r="T20">
-        <v>0.01115041595915235</v>
+        <v>0.03647453089339286</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>125.078619485241</v>
+        <v>73.53757802630399</v>
       </c>
       <c r="R21">
-        <v>750.4717169114459</v>
+        <v>441.225468157824</v>
       </c>
       <c r="S21">
-        <v>0.00574569479989978</v>
+        <v>0.006039481239255099</v>
       </c>
       <c r="T21">
-        <v>0.00442865104518342</v>
+        <v>0.004993167139361006</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N22">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O22">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P22">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q22">
-        <v>1202.113196603298</v>
+        <v>162.2622470723877</v>
       </c>
       <c r="R22">
-        <v>10819.01876942969</v>
+        <v>1460.36022365149</v>
       </c>
       <c r="S22">
-        <v>0.05522107272242065</v>
+        <v>0.0133262452114282</v>
       </c>
       <c r="T22">
-        <v>0.06384472286081838</v>
+        <v>0.01652629597926624</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P23">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q23">
-        <v>5417.329962467392</v>
+        <v>1074.240349045288</v>
       </c>
       <c r="R23">
-        <v>48755.96966220654</v>
+        <v>9668.163141407589</v>
       </c>
       <c r="S23">
-        <v>0.2488540785210937</v>
+        <v>0.08822502193625677</v>
       </c>
       <c r="T23">
-        <v>0.2877166069523451</v>
+        <v>0.109410625586078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N24">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O24">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P24">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q24">
-        <v>669.6827344256907</v>
+        <v>79.19704158184699</v>
       </c>
       <c r="R24">
-        <v>6027.144609831216</v>
+        <v>712.7733742366229</v>
       </c>
       <c r="S24">
-        <v>0.03076299227324289</v>
+        <v>0.006504280664056984</v>
       </c>
       <c r="T24">
-        <v>0.03556712354950779</v>
+        <v>0.008066163100033783</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N25">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O25">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P25">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q25">
-        <v>4590.43015755362</v>
+        <v>1208.309565363542</v>
       </c>
       <c r="R25">
-        <v>27542.58094532172</v>
+        <v>7249.857392181249</v>
       </c>
       <c r="S25">
-        <v>0.2108690581500316</v>
+        <v>0.09923583488995644</v>
       </c>
       <c r="T25">
-        <v>0.1625330803838154</v>
+        <v>0.08204365411369328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N26">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O26">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P26">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q26">
-        <v>1215.465168269038</v>
+        <v>110.2740545831431</v>
       </c>
       <c r="R26">
-        <v>10939.18651442135</v>
+        <v>992.466491248288</v>
       </c>
       <c r="S26">
-        <v>0.05583441778877954</v>
+        <v>0.009056568107169122</v>
       </c>
       <c r="T26">
-        <v>0.06455385152944408</v>
+        <v>0.01123133506256555</v>
       </c>
     </row>
   </sheetData>
